--- a/public/templates/ExportTemplate.xlsx
+++ b/public/templates/ExportTemplate.xlsx
@@ -32,22 +32,22 @@
     <t xml:space="preserve">  (DELIVERY NOTE)</t>
   </si>
   <si>
-    <t>TÊN KHÁCH HÀNG: CÔNG TY TRÁCH NHIỆM HỮU HẠN CÔNG NGHIỆP SIGMA VIỆT NAM</t>
-  </si>
-  <si>
-    <t>03/07/2024 15:14:57</t>
-  </si>
-  <si>
-    <t>GIAO HÀNG TẠI KHO:  C8</t>
+    <t>TÊN KHÁCH HÀNG: CÔNG TY TNHH MTV ASG TOÀN CẦU</t>
+  </si>
+  <si>
+    <t>30/05/2025 15:26:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIAO HÀNG TẠI KHO:  </t>
   </si>
   <si>
     <t>XUẤT TẠI KHO : CTY CP THÁI BÌNH DƯƠNG XANH</t>
   </si>
   <si>
-    <t>SỐ PXK: 15/05/24-7</t>
-  </si>
-  <si>
-    <t>SỐ XE: 62C-056.60</t>
+    <t>SỐ PXK: 03/04/24-1</t>
+  </si>
+  <si>
+    <t>SỐ XE: 62C-027.22</t>
   </si>
   <si>
     <t>STT</t>
